--- a/src/main/resources/DensityAreaInfo.xlsx
+++ b/src/main/resources/DensityAreaInfo.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDDDD\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81581E-C065-4535-BFD5-FCA2AE45300B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="장소목록" sheetId="1" r:id="rId4"/>
+    <sheet name="장소목록" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_29C0C022_D3A0_4F47_A009_391FF7296600_.wvu.FilterData">'장소목록'!$L$3</definedName>
+    <definedName name="Z_29C0C022_D3A0_4F47_A009_391FF7296600_.wvu.FilterData" localSheetId="0" hidden="1">장소목록!$F$3</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{29C0C022-D3A0-4F47-A009-391FF7296600}" name="필터 1"/>
+    <customWorkbookView name="필터 1" guid="{29C0C022-D3A0-4F47-A009-391FF7296600}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="372">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -46,25 +56,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>강남</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> MICE </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>관광특구</t>
     </r>
@@ -507,41 +521,41 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>총신대입구</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>이수</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>역</t>
     </r>
@@ -621,41 +635,41 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>광장</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>전통</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>시장</t>
     </r>
@@ -804,25 +818,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>청담동</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>명품거리</t>
     </r>
@@ -836,57 +854,65 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>청량리</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>제기동</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>일대</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>전통시장</t>
     </r>
@@ -900,25 +926,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>해방촌</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>·</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>경리단길</t>
     </r>
@@ -932,25 +962,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>DDP(</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>동대문디자인플라자</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1084,25 +1114,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>서리풀공원</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>·</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>몽마르뜨공원</t>
     </r>
@@ -1251,25 +1285,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>북창동</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>먹자골목</t>
     </r>
@@ -1402,39 +1440,76 @@
   </si>
   <si>
     <t>Hongje Waterfall</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude </t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1442,7 +1517,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1452,7 +1527,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1466,41 +1547,59 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1690,29 +1789,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.63"/>
-    <col customWidth="1" min="2" max="2" width="8.38"/>
-    <col customWidth="1" min="3" max="3" width="13.25"/>
-    <col customWidth="1" min="4" max="4" width="25.5"/>
-    <col customWidth="1" min="5" max="5" width="71.88"/>
-    <col customWidth="1" min="6" max="25" width="8.38"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="71.875" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.6875" style="5" customWidth="1"/>
+    <col min="8" max="19" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:17" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,8 +1833,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1740,19 +1849,13 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1763,13 +1866,19 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
+      <c r="F2" s="8">
+        <v>37.513500000000001</v>
+      </c>
+      <c r="G2" s="8">
+        <v>127.0583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1780,13 +1889,19 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
+      <c r="F3" s="8">
+        <v>37.571399999999997</v>
+      </c>
+      <c r="G3" s="8">
+        <v>127.0097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -1797,13 +1912,19 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
+      <c r="F4" s="8">
+        <v>37.563600000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>126.98220000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1814,13 +1935,19 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
+      <c r="F5" s="8">
+        <v>37.534799999999997</v>
+      </c>
+      <c r="G5" s="8">
+        <v>126.9937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -1831,13 +1958,19 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
+      <c r="F6" s="8">
+        <v>37.513300000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>127.1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1848,13 +1981,19 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
+      <c r="F7" s="8">
+        <v>37.568399999999997</v>
+      </c>
+      <c r="G7" s="8">
+        <v>126.979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -1865,13 +2004,19 @@
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
+      <c r="F8" s="8">
+        <v>37.557400000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>126.9246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1882,13 +2027,19 @@
       <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
+      <c r="F9" s="8">
+        <v>37.577599999999997</v>
+      </c>
+      <c r="G9" s="8">
+        <v>126.9769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
@@ -1899,13 +2050,19 @@
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
+      <c r="F10" s="8">
+        <v>37.575000000000003</v>
+      </c>
+      <c r="G10" s="5">
+        <v>126.9769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -1916,13 +2073,19 @@
       <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
+      <c r="F11" s="8">
+        <v>37.570399999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>126.98480000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -1933,13 +2096,19 @@
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
+      <c r="F12" s="8">
+        <v>37.553199999999997</v>
+      </c>
+      <c r="G12" s="8">
+        <v>127.12990000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
@@ -1950,13 +2119,19 @@
       <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
+      <c r="F13" s="8">
+        <v>37.579000000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>126.9918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1967,13 +2142,19 @@
       <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
+      <c r="F14" s="8">
+        <v>37.4816</v>
+      </c>
+      <c r="G14" s="8">
+        <v>126.8824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>47</v>
@@ -1984,13 +2165,19 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
+      <c r="F15" s="8">
+        <v>37.498100000000001</v>
+      </c>
+      <c r="G15" s="8">
+        <v>127.02760000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>50</v>
@@ -2001,13 +2188,19 @@
       <c r="E16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
+      <c r="F16" s="8">
+        <v>37.540399999999998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>127.069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>53</v>
@@ -2018,13 +2211,19 @@
       <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
+      <c r="F17" s="8">
+        <v>37.554000000000002</v>
+      </c>
+      <c r="G17" s="8">
+        <v>127.1557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
@@ -2035,13 +2234,19 @@
       <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
+      <c r="F18" s="8">
+        <v>37.504800000000003</v>
+      </c>
+      <c r="G18" s="8">
+        <v>127.00490000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>59</v>
@@ -2052,13 +2257,19 @@
       <c r="E19" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
+      <c r="F19" s="8">
+        <v>37.491700000000002</v>
+      </c>
+      <c r="G19" s="8">
+        <v>127.01300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>62</v>
@@ -2069,13 +2280,19 @@
       <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
+      <c r="F20" s="8">
+        <v>37.485300000000002</v>
+      </c>
+      <c r="G20" s="8">
+        <v>126.89060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>65</v>
@@ -2086,13 +2303,19 @@
       <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
+      <c r="F21" s="8">
+        <v>37.503500000000003</v>
+      </c>
+      <c r="G21" s="8">
+        <v>126.8824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>68</v>
@@ -2103,13 +2326,19 @@
       <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
+      <c r="F22" s="8">
+        <v>37.557400000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <v>127.0782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>71</v>
@@ -2120,13 +2349,19 @@
       <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
+      <c r="F23" s="8">
+        <v>37.4923</v>
+      </c>
+      <c r="G23" s="8">
+        <v>126.89530000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>74</v>
@@ -2137,13 +2372,19 @@
       <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
+      <c r="F24" s="8">
+        <v>37.571399999999997</v>
+      </c>
+      <c r="G24" s="8">
+        <v>127.0097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>77</v>
@@ -2154,13 +2395,19 @@
       <c r="E25" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
+      <c r="F25" s="8">
+        <v>37.547499999999999</v>
+      </c>
+      <c r="G25" s="8">
+        <v>127.0425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
@@ -2171,13 +2418,19 @@
       <c r="E26" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
+      <c r="F26" s="8">
+        <v>37.612000000000002</v>
+      </c>
+      <c r="G26" s="8">
+        <v>127.027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>83</v>
@@ -2188,13 +2441,19 @@
       <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
+      <c r="F27" s="8">
+        <v>37.556199999999997</v>
+      </c>
+      <c r="G27" s="8">
+        <v>126.84059999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>86</v>
@@ -2205,13 +2464,19 @@
       <c r="E28" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
+      <c r="F28" s="8">
+        <v>37.476399999999998</v>
+      </c>
+      <c r="G28" s="8">
+        <v>126.9817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>89</v>
@@ -2222,13 +2487,19 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
+      <c r="F29" s="8">
+        <v>37.535600000000002</v>
+      </c>
+      <c r="G29" s="8">
+        <v>126.9731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>92</v>
@@ -2239,13 +2510,19 @@
       <c r="E30" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
+      <c r="F30" s="8">
+        <v>37.481200000000001</v>
+      </c>
+      <c r="G30" s="8">
+        <v>126.95269999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>95</v>
@@ -2256,13 +2533,19 @@
       <c r="E31" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
+      <c r="F31" s="8">
+        <v>37.576000000000001</v>
+      </c>
+      <c r="G31" s="8">
+        <v>126.8184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>98</v>
@@ -2273,13 +2556,19 @@
       <c r="E32" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
+      <c r="F32" s="8">
+        <v>37.556199999999997</v>
+      </c>
+      <c r="G32" s="8">
+        <v>126.9723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>101</v>
@@ -2290,13 +2579,19 @@
       <c r="E33" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
+      <c r="F33" s="8">
+        <v>37.5045</v>
+      </c>
+      <c r="G33" s="8">
+        <v>127.04940000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>104</v>
@@ -2307,13 +2602,19 @@
       <c r="E34" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
+      <c r="F34" s="8">
+        <v>37.592300000000002</v>
+      </c>
+      <c r="G34" s="8">
+        <v>127.0107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>107</v>
@@ -2324,13 +2625,19 @@
       <c r="E35" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
+      <c r="F35" s="8">
+        <v>37.638399999999997</v>
+      </c>
+      <c r="G35" s="8">
+        <v>127.0264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>110</v>
@@ -2341,13 +2648,19 @@
       <c r="E36" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
+      <c r="F36" s="8">
+        <v>37.504199999999997</v>
+      </c>
+      <c r="G36" s="5">
+        <v>127.0253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>113</v>
@@ -2358,13 +2671,19 @@
       <c r="E37" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
+      <c r="F37" s="8">
+        <v>37.506500000000003</v>
+      </c>
+      <c r="G37" s="8">
+        <v>126.89109999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>116</v>
@@ -2375,13 +2694,19 @@
       <c r="E38" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
+      <c r="F38" s="8">
+        <v>37.483899999999998</v>
+      </c>
+      <c r="G38" s="8">
+        <v>126.9298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>119</v>
@@ -2392,13 +2717,19 @@
       <c r="E39" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
+      <c r="F39" s="8">
+        <v>37.558300000000003</v>
+      </c>
+      <c r="G39" s="5">
+        <v>126.94629999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>122</v>
@@ -2409,13 +2740,19 @@
       <c r="E40" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
+      <c r="F40" s="8">
+        <v>37.484200000000001</v>
+      </c>
+      <c r="G40" s="8">
+        <v>127.03449999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>125</v>
@@ -2426,13 +2763,19 @@
       <c r="E41" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
+      <c r="F41" s="8">
+        <v>37.500599999999999</v>
+      </c>
+      <c r="G41" s="8">
+        <v>127.03660000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>128</v>
@@ -2443,13 +2786,19 @@
       <c r="E42" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
+      <c r="F42" s="8">
+        <v>37.619</v>
+      </c>
+      <c r="G42" s="8">
+        <v>126.92100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>131</v>
@@ -2460,13 +2809,19 @@
       <c r="E43" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
+      <c r="F43" s="8">
+        <v>37.525500000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <v>126.87779999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>134</v>
@@ -2477,13 +2832,19 @@
       <c r="E44" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
+      <c r="F44" s="8">
+        <v>37.561500000000002</v>
+      </c>
+      <c r="G44" s="8">
+        <v>127.0368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>137</v>
@@ -2494,13 +2855,19 @@
       <c r="E45" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
+      <c r="F45" s="8">
+        <v>37.529800000000002</v>
+      </c>
+      <c r="G45" s="8">
+        <v>126.9646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>140</v>
@@ -2511,13 +2878,19 @@
       <c r="E46" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" ht="18.75" customHeight="1">
+      <c r="F46" s="8">
+        <v>37.533999999999999</v>
+      </c>
+      <c r="G46" s="8">
+        <v>126.99420000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>143</v>
@@ -2528,13 +2901,19 @@
       <c r="E47" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" ht="18.75" customHeight="1">
+      <c r="F47" s="8">
+        <v>37.485199999999999</v>
+      </c>
+      <c r="G47" s="8">
+        <v>127.1275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>146</v>
@@ -2545,13 +2924,19 @@
       <c r="E48" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" ht="18.75" customHeight="1">
+      <c r="F48" s="8">
+        <v>37.560600000000001</v>
+      </c>
+      <c r="G48" s="8">
+        <v>127.07340000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>149</v>
@@ -2562,13 +2947,19 @@
       <c r="E49" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" ht="18.75" customHeight="1">
+      <c r="F49" s="8">
+        <v>37.543399999999998</v>
+      </c>
+      <c r="G49" s="8">
+        <v>127.12649999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>152</v>
@@ -2579,13 +2970,19 @@
       <c r="E50" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" ht="18.75" customHeight="1">
+      <c r="F50" s="8">
+        <v>37.4925</v>
+      </c>
+      <c r="G50" s="8">
+        <v>126.9825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>155</v>
@@ -2596,13 +2993,19 @@
       <c r="E51" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
+      <c r="F51" s="8">
+        <v>37.5595</v>
+      </c>
+      <c r="G51" s="8">
+        <v>126.9645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>158</v>
@@ -2613,13 +3016,19 @@
       <c r="E52" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" ht="18.75" customHeight="1">
+      <c r="F52" s="8">
+        <v>37.549199999999999</v>
+      </c>
+      <c r="G52" s="8">
+        <v>126.9174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>161</v>
@@ -2630,13 +3039,19 @@
       <c r="E53" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
+      <c r="F53" s="8">
+        <v>37.5822</v>
+      </c>
+      <c r="G53" s="8">
+        <v>127.00190000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>164</v>
@@ -2647,13 +3062,19 @@
       <c r="E54" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
+      <c r="F54" s="8">
+        <v>37.557400000000001</v>
+      </c>
+      <c r="G54" s="8">
+        <v>126.9246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>167</v>
@@ -2664,13 +3085,19 @@
       <c r="E55" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="56" ht="18.75" customHeight="1">
+      <c r="F55" s="8">
+        <v>37.589799999999997</v>
+      </c>
+      <c r="G55" s="8">
+        <v>127.0583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>171</v>
@@ -2681,13 +3108,19 @@
       <c r="E56" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="57" ht="18.75" customHeight="1">
+      <c r="F56" s="8">
+        <v>37.490699999999997</v>
+      </c>
+      <c r="G56" s="8">
+        <v>127.1129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>174</v>
@@ -2698,13 +3131,19 @@
       <c r="E57" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" ht="18.75" customHeight="1">
+      <c r="F57" s="8">
+        <v>37.520400000000002</v>
+      </c>
+      <c r="G57" s="8">
+        <v>127.0253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>177</v>
@@ -2715,13 +3154,19 @@
       <c r="E58" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="59" ht="18.75" customHeight="1">
+      <c r="F58" s="8">
+        <v>37.570099999999996</v>
+      </c>
+      <c r="G58" s="8">
+        <v>126.9997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B59" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>180</v>
@@ -2732,13 +3177,19 @@
       <c r="E59" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" ht="18.75" customHeight="1">
+      <c r="F59" s="8">
+        <v>37.558700000000002</v>
+      </c>
+      <c r="G59" s="8">
+        <v>126.7941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B60" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>183</v>
@@ -2749,13 +3200,19 @@
       <c r="E60" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" ht="18.75" customHeight="1">
+      <c r="F60" s="8">
+        <v>37.513199999999998</v>
+      </c>
+      <c r="G60" s="8">
+        <v>126.9427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B61" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>186</v>
@@ -2766,13 +3223,19 @@
       <c r="E61" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="62" ht="18.75" customHeight="1">
+      <c r="F61" s="8">
+        <v>37.565800000000003</v>
+      </c>
+      <c r="G61" s="5">
+        <v>126.9751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B62" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>189</v>
@@ -2783,13 +3246,19 @@
       <c r="E62" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" ht="18.75" customHeight="1">
+      <c r="F62" s="8">
+        <v>37.582799999999999</v>
+      </c>
+      <c r="G62" s="8">
+        <v>126.98390000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B63" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>192</v>
@@ -2800,13 +3269,19 @@
       <c r="E63" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="64" ht="18.75" customHeight="1">
+      <c r="F63" s="8">
+        <v>37.5794</v>
+      </c>
+      <c r="G63" s="8">
+        <v>126.9701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B64" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>195</v>
@@ -2817,13 +3292,19 @@
       <c r="E64" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" ht="18.75" customHeight="1">
+      <c r="F64" s="8">
+        <v>37.545699999999997</v>
+      </c>
+      <c r="G64" s="8">
+        <v>127.0543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>198</v>
@@ -2834,13 +3315,19 @@
       <c r="E65" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="66" ht="18.75" customHeight="1">
+      <c r="F65" s="8">
+        <v>37.648899999999998</v>
+      </c>
+      <c r="G65" s="8">
+        <v>127.03449999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>201</v>
@@ -2851,13 +3338,19 @@
       <c r="E66" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" ht="18.75" customHeight="1">
+      <c r="F66" s="8">
+        <v>37.527299999999997</v>
+      </c>
+      <c r="G66" s="8">
+        <v>127.03959999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>204</v>
@@ -2868,13 +3361,19 @@
       <c r="E67" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="68" ht="18.75" customHeight="1">
+      <c r="F67" s="8">
+        <v>37.521799999999999</v>
+      </c>
+      <c r="G67" s="8">
+        <v>126.9248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>207</v>
@@ -2885,13 +3384,19 @@
       <c r="E68" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="69" ht="18.75" customHeight="1">
+      <c r="F68" s="8">
+        <v>37.559899999999999</v>
+      </c>
+      <c r="G68" s="8">
+        <v>126.9252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>210</v>
@@ -2902,13 +3407,19 @@
       <c r="E69" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" ht="18.75" customHeight="1">
+      <c r="F69" s="8">
+        <v>37.517299999999999</v>
+      </c>
+      <c r="G69" s="8">
+        <v>126.9067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>213</v>
@@ -2919,13 +3430,19 @@
       <c r="E70" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="71" ht="18.75" customHeight="1">
+      <c r="F70" s="8">
+        <v>37.527200000000001</v>
+      </c>
+      <c r="G70" s="8">
+        <v>126.9734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>216</v>
@@ -2936,13 +3453,19 @@
       <c r="E71" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="72" ht="18.75" customHeight="1">
+      <c r="F71" s="8">
+        <v>37.536700000000003</v>
+      </c>
+      <c r="G71" s="8">
+        <v>126.99469999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>219</v>
@@ -2953,13 +3476,19 @@
       <c r="E72" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" ht="18.75" customHeight="1">
+      <c r="F72" s="8">
+        <v>37.5732</v>
+      </c>
+      <c r="G72" s="8">
+        <v>126.9877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>222</v>
@@ -2970,13 +3499,19 @@
       <c r="E73" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" ht="18.75" customHeight="1">
+      <c r="F73" s="8">
+        <v>37.653399999999998</v>
+      </c>
+      <c r="G73" s="8">
+        <v>127.0478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>225</v>
@@ -2987,13 +3522,19 @@
       <c r="E74" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="75" ht="18.75" customHeight="1">
+      <c r="F74" s="8">
+        <v>37.524999999999999</v>
+      </c>
+      <c r="G74" s="8">
+        <v>127.04940000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>228</v>
@@ -3004,13 +3545,19 @@
       <c r="E75" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="76" ht="18.75" customHeight="1">
+      <c r="F75" s="8">
+        <v>37.578600000000002</v>
+      </c>
+      <c r="G75" s="8">
+        <v>127.0425</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>231</v>
@@ -3021,13 +3568,19 @@
       <c r="E76" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="77" ht="18.75" customHeight="1">
+      <c r="F76" s="8">
+        <v>37.545699999999997</v>
+      </c>
+      <c r="G76" s="5">
+        <v>126.99039999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>234</v>
@@ -3038,13 +3591,19 @@
       <c r="E77" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="78" ht="18.75" customHeight="1">
+      <c r="F77" s="8">
+        <v>37.566600000000001</v>
+      </c>
+      <c r="G77" s="8">
+        <v>127.0093</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>237</v>
@@ -3055,13 +3614,19 @@
       <c r="E78" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" ht="18.75" customHeight="1">
+      <c r="F78" s="8">
+        <v>37.578099999999999</v>
+      </c>
+      <c r="G78" s="8">
+        <v>126.892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>241</v>
@@ -3072,13 +3637,19 @@
       <c r="E79" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="80" ht="18.75" customHeight="1">
+      <c r="F79" s="8">
+        <v>37.568399999999997</v>
+      </c>
+      <c r="G79" s="8">
+        <v>126.8122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>244</v>
@@ -3089,13 +3660,19 @@
       <c r="E80" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="81" ht="18.75" customHeight="1">
+      <c r="F80" s="8">
+        <v>37.4983</v>
+      </c>
+      <c r="G80" s="8">
+        <v>126.8665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>247</v>
@@ -3106,13 +3683,19 @@
       <c r="E81" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="82" ht="18.75" customHeight="1">
+      <c r="F81" s="8">
+        <v>37.545099999999998</v>
+      </c>
+      <c r="G81" s="8">
+        <v>127.0984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>250</v>
@@ -3123,13 +3706,19 @@
       <c r="E82" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="83" ht="18.75" customHeight="1">
+      <c r="F82" s="8">
+        <v>37.575899999999997</v>
+      </c>
+      <c r="G82" s="8">
+        <v>126.977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>253</v>
@@ -3140,13 +3729,19 @@
       <c r="E83" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="84" ht="18.75" customHeight="1">
+      <c r="F83" s="8">
+        <v>37.523000000000003</v>
+      </c>
+      <c r="G83" s="8">
+        <v>126.9772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>256</v>
@@ -3157,13 +3752,19 @@
       <c r="E84" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="85" ht="18.75" customHeight="1">
+      <c r="F84" s="8">
+        <v>37.567</v>
+      </c>
+      <c r="G84" s="8">
+        <v>126.877</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B85" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>259</v>
@@ -3174,13 +3775,19 @@
       <c r="E85" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" ht="18.75" customHeight="1">
+      <c r="F85" s="8">
+        <v>37.550699999999999</v>
+      </c>
+      <c r="G85" s="8">
+        <v>126.9906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B86" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>262</v>
@@ -3191,13 +3798,19 @@
       <c r="E86" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" ht="18.75" customHeight="1">
+      <c r="F86" s="8">
+        <v>37.506500000000003</v>
+      </c>
+      <c r="G86" s="8">
+        <v>126.9602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B87" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>265</v>
@@ -3208,13 +3821,19 @@
       <c r="E87" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" ht="18.75" customHeight="1">
+      <c r="F87" s="8">
+        <v>37.540100000000002</v>
+      </c>
+      <c r="G87" s="8">
+        <v>127.0583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B88" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>268</v>
@@ -3225,13 +3844,19 @@
       <c r="E88" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" ht="18.75" customHeight="1">
+      <c r="F88" s="8">
+        <v>37.555799999999998</v>
+      </c>
+      <c r="G88" s="8">
+        <v>126.8927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B89" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>271</v>
@@ -3242,13 +3867,19 @@
       <c r="E89" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="90" ht="18.75" customHeight="1">
+      <c r="F89" s="8">
+        <v>37.513199999999998</v>
+      </c>
+      <c r="G89" s="8">
+        <v>126.995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B90" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>274</v>
@@ -3259,13 +3890,19 @@
       <c r="E90" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="91" ht="18.75" customHeight="1">
+      <c r="F90" s="8">
+        <v>37.615000000000002</v>
+      </c>
+      <c r="G90" s="8">
+        <v>127.03740000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B91" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>277</v>
@@ -3276,13 +3913,19 @@
       <c r="E91" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="92" ht="18.75" customHeight="1">
+      <c r="F91" s="8">
+        <v>37.491300000000003</v>
+      </c>
+      <c r="G91" s="5">
+        <v>127.009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B92" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>280</v>
@@ -3293,13 +3936,19 @@
       <c r="E92" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="93" ht="18.75" customHeight="1">
+      <c r="F92" s="8">
+        <v>37.566299999999998</v>
+      </c>
+      <c r="G92" s="8">
+        <v>126.9782</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B93" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>283</v>
@@ -3310,13 +3959,19 @@
       <c r="E93" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="94" ht="18.75" customHeight="1">
+      <c r="F93" s="8">
+        <v>37.426200000000001</v>
+      </c>
+      <c r="G93" s="8">
+        <v>127.0177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B94" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>286</v>
@@ -3327,13 +3982,19 @@
       <c r="E94" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="95" ht="18.75" customHeight="1">
+      <c r="F94" s="8">
+        <v>37.544499999999999</v>
+      </c>
+      <c r="G94" s="8">
+        <v>127.0368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B95" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>289</v>
@@ -3344,13 +4005,19 @@
       <c r="E95" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="96" ht="18.75" customHeight="1">
+      <c r="F95" s="8">
+        <v>37.551000000000002</v>
+      </c>
+      <c r="G95" s="8">
+        <v>127.0984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B96" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>292</v>
@@ -3361,13 +4028,19 @@
       <c r="E96" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" ht="18.75" customHeight="1">
+      <c r="F96" s="8">
+        <v>37.5471</v>
+      </c>
+      <c r="G96" s="8">
+        <v>126.9015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B97" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>295</v>
@@ -3378,13 +4051,19 @@
       <c r="E97" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="98" ht="18.75" customHeight="1">
+      <c r="F97" s="8">
+        <v>37.549199999999999</v>
+      </c>
+      <c r="G97" s="8">
+        <v>127.0818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B98" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>298</v>
@@ -3395,13 +4074,19 @@
       <c r="E98" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" ht="18.75" customHeight="1">
+      <c r="F98" s="8">
+        <v>37.527299999999997</v>
+      </c>
+      <c r="G98" s="8">
+        <v>126.9324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B99" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>301</v>
@@ -3412,13 +4097,19 @@
       <c r="E99" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" ht="18.75" customHeight="1">
+      <c r="F99" s="8">
+        <v>37.571399999999997</v>
+      </c>
+      <c r="G99" s="8">
+        <v>126.8837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B100" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>304</v>
@@ -3429,13 +4120,19 @@
       <c r="E100" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="101" ht="18.75" customHeight="1">
+      <c r="F100" s="8">
+        <v>37.550199999999997</v>
+      </c>
+      <c r="G100" s="8">
+        <v>127.0354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>307</v>
@@ -3446,13 +4143,19 @@
       <c r="E101" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="102" ht="18.75" customHeight="1">
+      <c r="F101" s="8">
+        <v>37.525500000000001</v>
+      </c>
+      <c r="G101" s="8">
+        <v>126.97450000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B102" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>310</v>
@@ -3463,13 +4166,19 @@
       <c r="E102" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="103" ht="18.75" customHeight="1">
+      <c r="F102" s="8">
+        <v>37.514699999999998</v>
+      </c>
+      <c r="G102" s="8">
+        <v>127.07340000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B103" s="3">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>313</v>
@@ -3480,13 +4189,19 @@
       <c r="E103" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="104" ht="18.75" customHeight="1">
+      <c r="F103" s="8">
+        <v>37.524500000000003</v>
+      </c>
+      <c r="G103" s="8">
+        <v>127.0543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B104" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>316</v>
@@ -3497,13 +4212,19 @@
       <c r="E104" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="105" ht="18.75" customHeight="1">
+      <c r="F104" s="8">
+        <v>37.5197</v>
+      </c>
+      <c r="G104" s="8">
+        <v>127.01560000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B105" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>319</v>
@@ -3514,13 +4235,19 @@
       <c r="E105" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="106" ht="18.75" customHeight="1">
+      <c r="F105" s="8">
+        <v>37.441099999999999</v>
+      </c>
+      <c r="G105" s="8">
+        <v>127.03360000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B106" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>322</v>
@@ -3531,13 +4258,19 @@
       <c r="E106" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="107" ht="18.75" customHeight="1">
+      <c r="F106" s="8">
+        <v>37.597700000000003</v>
+      </c>
+      <c r="G106" s="8">
+        <v>126.9786</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B107" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>325</v>
@@ -3548,13 +4281,19 @@
       <c r="E107" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="108" ht="18.75" customHeight="1">
+      <c r="F107" s="8">
+        <v>37.561300000000003</v>
+      </c>
+      <c r="G107" s="8">
+        <v>126.9772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B108" s="3">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>328</v>
@@ -3565,13 +4304,19 @@
       <c r="E108" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="109" ht="18.75" customHeight="1">
+      <c r="F108" s="8">
+        <v>37.559899999999999</v>
+      </c>
+      <c r="G108" s="8">
+        <v>126.97539999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B109" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>331</v>
@@ -3582,13 +4327,19 @@
       <c r="E109" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" ht="18.75" customHeight="1">
+      <c r="F109" s="8">
+        <v>37.574599999999997</v>
+      </c>
+      <c r="G109" s="8">
+        <v>126.99120000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="3">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>334</v>
@@ -3599,13 +4350,19 @@
       <c r="E110" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="111" ht="18.75" customHeight="1">
+      <c r="F110" s="8">
+        <v>37.518599999999999</v>
+      </c>
+      <c r="G110" s="8">
+        <v>126.8573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="3">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>337</v>
@@ -3616,13 +4373,19 @@
       <c r="E111" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="112" ht="18.75" customHeight="1">
+      <c r="F111" s="8">
+        <v>37.509799999999998</v>
+      </c>
+      <c r="G111" s="8">
+        <v>127.08799999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B112" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>340</v>
@@ -3633,13 +4396,19 @@
       <c r="E112" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="113" ht="18.75" customHeight="1">
+      <c r="F112" s="8">
+        <v>37.513300000000001</v>
+      </c>
+      <c r="G112" s="8">
+        <v>127.1002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B113" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>343</v>
@@ -3650,13 +4419,19 @@
       <c r="E113" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="114" ht="18.75" customHeight="1">
+      <c r="F113" s="8">
+        <v>37.512599999999999</v>
+      </c>
+      <c r="G113" s="8">
+        <v>127.1026</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B114" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>346</v>
@@ -3667,13 +4442,19 @@
       <c r="E114" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="115" ht="18.75" customHeight="1">
+      <c r="F114" s="8">
+        <v>37.509700000000002</v>
+      </c>
+      <c r="G114" s="5">
+        <v>127.1054</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B115" s="3">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>349</v>
@@ -3684,13 +4465,19 @@
       <c r="E115" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="116" ht="18.75" customHeight="1">
+      <c r="F115" s="8">
+        <v>37.559800000000003</v>
+      </c>
+      <c r="G115" s="5">
+        <v>126.9372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B116" s="3">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>352</v>
@@ -3701,13 +4488,19 @@
       <c r="E116" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="117" ht="18.75" customHeight="1">
+      <c r="F116" s="8">
+        <v>37.491999999999997</v>
+      </c>
+      <c r="G116" s="8">
+        <v>126.9234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B117" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>355</v>
@@ -3718,13 +4511,19 @@
       <c r="E117" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="118" ht="18.75" customHeight="1">
+      <c r="F117" s="8">
+        <v>37.575000000000003</v>
+      </c>
+      <c r="G117" s="8">
+        <v>126.95659999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B118" s="3">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>358</v>
@@ -3735,13 +4534,19 @@
       <c r="E118" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="119" ht="18.75" customHeight="1">
+      <c r="F118" s="8">
+        <v>37.494700000000002</v>
+      </c>
+      <c r="G118" s="5">
+        <v>126.87779999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B119" s="3">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>361</v>
@@ -3752,13 +4557,19 @@
       <c r="E119" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="120" ht="18.75" customHeight="1">
+      <c r="F119" s="8">
+        <v>37.531199999999998</v>
+      </c>
+      <c r="G119" s="8">
+        <v>126.91889999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B120" s="3">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>364</v>
@@ -3769,13 +4580,19 @@
       <c r="E120" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="121" ht="18.75" customHeight="1">
+      <c r="F120" s="8">
+        <v>37.520400000000002</v>
+      </c>
+      <c r="G120" s="8">
+        <v>127.11799999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B121" s="3">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>367</v>
@@ -3786,882 +4603,3534 @@
       <c r="E121" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
+      <c r="F121" s="8">
+        <v>37.587200000000003</v>
+      </c>
+      <c r="G121" s="8">
+        <v>126.9427</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+    </row>
+    <row r="176" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+    </row>
+    <row r="177" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+    </row>
+    <row r="178" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+    </row>
+    <row r="211" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+    </row>
+    <row r="232" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+    </row>
+    <row r="238" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+    </row>
+    <row r="253" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+    </row>
+    <row r="254" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+    </row>
+    <row r="260" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+    </row>
+    <row r="280" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+    </row>
+    <row r="283" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+    </row>
+    <row r="284" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+    </row>
+    <row r="289" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+    </row>
+    <row r="290" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+    </row>
+    <row r="291" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+    </row>
+    <row r="292" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+    </row>
+    <row r="293" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+    </row>
+    <row r="294" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+    </row>
+    <row r="295" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+    </row>
+    <row r="296" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+    </row>
+    <row r="297" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+    </row>
+    <row r="298" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+    </row>
+    <row r="299" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+    </row>
+    <row r="300" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+    </row>
+    <row r="301" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+    </row>
+    <row r="302" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+    </row>
+    <row r="303" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+    </row>
+    <row r="304" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+    </row>
+    <row r="305" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+    </row>
+    <row r="306" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+    </row>
+    <row r="307" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+    </row>
+    <row r="308" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+    </row>
+    <row r="309" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+    </row>
+    <row r="310" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+    </row>
+    <row r="311" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+    </row>
+    <row r="312" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+    </row>
+    <row r="313" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+    </row>
+    <row r="314" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+    </row>
+    <row r="315" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+    </row>
+    <row r="316" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+    </row>
+    <row r="317" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+    </row>
+    <row r="318" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+    </row>
+    <row r="319" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+    </row>
+    <row r="320" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+    </row>
+    <row r="321" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+    </row>
+    <row r="322" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+    </row>
+    <row r="323" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+    </row>
+    <row r="324" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+    </row>
+    <row r="326" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+    </row>
+    <row r="327" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+    </row>
+    <row r="328" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+    </row>
+    <row r="329" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+    </row>
+    <row r="330" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+    </row>
+    <row r="331" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+    </row>
+    <row r="332" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+    </row>
+    <row r="333" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+    </row>
+    <row r="334" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+    </row>
+    <row r="335" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+    </row>
+    <row r="336" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+    </row>
+    <row r="337" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+    </row>
+    <row r="338" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+    </row>
+    <row r="339" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+    </row>
+    <row r="340" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+    </row>
+    <row r="341" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+    </row>
+    <row r="342" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+    </row>
+    <row r="343" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+    </row>
+    <row r="344" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+    </row>
+    <row r="345" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+    </row>
+    <row r="346" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+    </row>
+    <row r="347" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+    </row>
+    <row r="348" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+    </row>
+    <row r="349" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+    </row>
+    <row r="350" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+    </row>
+    <row r="351" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+    </row>
+    <row r="352" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+    </row>
+    <row r="353" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+    </row>
+    <row r="354" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+    </row>
+    <row r="355" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+    </row>
+    <row r="356" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+    </row>
+    <row r="357" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+    </row>
+    <row r="358" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+    </row>
+    <row r="359" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+    </row>
+    <row r="360" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+    </row>
+    <row r="361" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+    </row>
+    <row r="362" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+    </row>
+    <row r="363" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+    </row>
+    <row r="364" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+    </row>
+    <row r="365" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+    </row>
+    <row r="366" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+    </row>
+    <row r="367" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+    </row>
+    <row r="368" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+    </row>
+    <row r="369" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+    </row>
+    <row r="370" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
+    </row>
+    <row r="372" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+    </row>
+    <row r="373" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
+    </row>
+    <row r="374" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
+    </row>
+    <row r="375" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+    </row>
+    <row r="376" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+    </row>
+    <row r="377" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+    </row>
+    <row r="378" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+    </row>
+    <row r="379" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+    </row>
+    <row r="380" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+    </row>
+    <row r="381" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+    </row>
+    <row r="382" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+    </row>
+    <row r="383" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+    </row>
+    <row r="384" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+    </row>
+    <row r="385" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+    </row>
+    <row r="386" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+    </row>
+    <row r="387" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+    </row>
+    <row r="388" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+    </row>
+    <row r="389" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+    </row>
+    <row r="390" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+    </row>
+    <row r="391" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+    </row>
+    <row r="392" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+    </row>
+    <row r="393" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+    </row>
+    <row r="394" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+    </row>
+    <row r="395" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+    </row>
+    <row r="396" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F396" s="6"/>
+      <c r="G396" s="6"/>
+    </row>
+    <row r="397" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+    </row>
+    <row r="398" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+    </row>
+    <row r="399" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+    </row>
+    <row r="400" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+    </row>
+    <row r="401" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+    </row>
+    <row r="402" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+    </row>
+    <row r="403" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+    </row>
+    <row r="404" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+    </row>
+    <row r="405" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+    </row>
+    <row r="406" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+    </row>
+    <row r="407" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F407" s="6"/>
+      <c r="G407" s="6"/>
+    </row>
+    <row r="408" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F408" s="6"/>
+      <c r="G408" s="6"/>
+    </row>
+    <row r="409" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F409" s="6"/>
+      <c r="G409" s="6"/>
+    </row>
+    <row r="410" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+    </row>
+    <row r="411" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+    </row>
+    <row r="412" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F412" s="6"/>
+      <c r="G412" s="6"/>
+    </row>
+    <row r="413" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F413" s="6"/>
+      <c r="G413" s="6"/>
+    </row>
+    <row r="414" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F414" s="6"/>
+      <c r="G414" s="6"/>
+    </row>
+    <row r="415" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+    </row>
+    <row r="416" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
+    </row>
+    <row r="417" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F417" s="6"/>
+      <c r="G417" s="6"/>
+    </row>
+    <row r="418" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F418" s="6"/>
+      <c r="G418" s="6"/>
+    </row>
+    <row r="419" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F419" s="6"/>
+      <c r="G419" s="6"/>
+    </row>
+    <row r="420" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F420" s="6"/>
+      <c r="G420" s="6"/>
+    </row>
+    <row r="421" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
+    </row>
+    <row r="422" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F422" s="6"/>
+      <c r="G422" s="6"/>
+    </row>
+    <row r="423" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+    </row>
+    <row r="424" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+    </row>
+    <row r="425" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+    </row>
+    <row r="426" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+    </row>
+    <row r="427" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+    </row>
+    <row r="428" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+    </row>
+    <row r="429" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F429" s="6"/>
+      <c r="G429" s="6"/>
+    </row>
+    <row r="430" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+    </row>
+    <row r="431" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+    </row>
+    <row r="432" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+    </row>
+    <row r="433" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+    </row>
+    <row r="434" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+    </row>
+    <row r="435" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+    </row>
+    <row r="436" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+    </row>
+    <row r="437" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+    </row>
+    <row r="438" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+    </row>
+    <row r="439" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+    </row>
+    <row r="440" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+    </row>
+    <row r="441" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+    </row>
+    <row r="442" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+    </row>
+    <row r="443" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+    </row>
+    <row r="444" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+    </row>
+    <row r="445" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+    </row>
+    <row r="446" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F446" s="6"/>
+      <c r="G446" s="6"/>
+    </row>
+    <row r="447" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+    </row>
+    <row r="448" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+    </row>
+    <row r="449" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+    </row>
+    <row r="450" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+    </row>
+    <row r="451" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F451" s="6"/>
+      <c r="G451" s="6"/>
+    </row>
+    <row r="452" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
+    </row>
+    <row r="453" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+    </row>
+    <row r="454" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F454" s="6"/>
+      <c r="G454" s="6"/>
+    </row>
+    <row r="455" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F455" s="6"/>
+      <c r="G455" s="6"/>
+    </row>
+    <row r="456" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F456" s="6"/>
+      <c r="G456" s="6"/>
+    </row>
+    <row r="457" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F457" s="6"/>
+      <c r="G457" s="6"/>
+    </row>
+    <row r="458" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F458" s="6"/>
+      <c r="G458" s="6"/>
+    </row>
+    <row r="459" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F459" s="6"/>
+      <c r="G459" s="6"/>
+    </row>
+    <row r="460" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
+    </row>
+    <row r="461" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F461" s="6"/>
+      <c r="G461" s="6"/>
+    </row>
+    <row r="462" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F462" s="6"/>
+      <c r="G462" s="6"/>
+    </row>
+    <row r="463" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F463" s="6"/>
+      <c r="G463" s="6"/>
+    </row>
+    <row r="464" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F464" s="6"/>
+      <c r="G464" s="6"/>
+    </row>
+    <row r="465" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F465" s="6"/>
+      <c r="G465" s="6"/>
+    </row>
+    <row r="466" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F466" s="6"/>
+      <c r="G466" s="6"/>
+    </row>
+    <row r="467" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F467" s="6"/>
+      <c r="G467" s="6"/>
+    </row>
+    <row r="468" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F468" s="6"/>
+      <c r="G468" s="6"/>
+    </row>
+    <row r="469" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F469" s="6"/>
+      <c r="G469" s="6"/>
+    </row>
+    <row r="470" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F470" s="6"/>
+      <c r="G470" s="6"/>
+    </row>
+    <row r="471" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F471" s="6"/>
+      <c r="G471" s="6"/>
+    </row>
+    <row r="472" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F472" s="6"/>
+      <c r="G472" s="6"/>
+    </row>
+    <row r="473" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F473" s="6"/>
+      <c r="G473" s="6"/>
+    </row>
+    <row r="474" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F474" s="6"/>
+      <c r="G474" s="6"/>
+    </row>
+    <row r="475" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F475" s="6"/>
+      <c r="G475" s="6"/>
+    </row>
+    <row r="476" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F476" s="6"/>
+      <c r="G476" s="6"/>
+    </row>
+    <row r="477" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F477" s="6"/>
+      <c r="G477" s="6"/>
+    </row>
+    <row r="478" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F478" s="6"/>
+      <c r="G478" s="6"/>
+    </row>
+    <row r="479" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F479" s="6"/>
+      <c r="G479" s="6"/>
+    </row>
+    <row r="480" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F480" s="6"/>
+      <c r="G480" s="6"/>
+    </row>
+    <row r="481" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F481" s="6"/>
+      <c r="G481" s="6"/>
+    </row>
+    <row r="482" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F482" s="6"/>
+      <c r="G482" s="6"/>
+    </row>
+    <row r="483" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F483" s="6"/>
+      <c r="G483" s="6"/>
+    </row>
+    <row r="484" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F484" s="6"/>
+      <c r="G484" s="6"/>
+    </row>
+    <row r="485" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F485" s="6"/>
+      <c r="G485" s="6"/>
+    </row>
+    <row r="486" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F486" s="6"/>
+      <c r="G486" s="6"/>
+    </row>
+    <row r="487" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F487" s="6"/>
+      <c r="G487" s="6"/>
+    </row>
+    <row r="488" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F488" s="6"/>
+      <c r="G488" s="6"/>
+    </row>
+    <row r="489" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F489" s="6"/>
+      <c r="G489" s="6"/>
+    </row>
+    <row r="490" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F490" s="6"/>
+      <c r="G490" s="6"/>
+    </row>
+    <row r="491" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F491" s="6"/>
+      <c r="G491" s="6"/>
+    </row>
+    <row r="492" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F492" s="6"/>
+      <c r="G492" s="6"/>
+    </row>
+    <row r="493" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F493" s="6"/>
+      <c r="G493" s="6"/>
+    </row>
+    <row r="494" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F494" s="6"/>
+      <c r="G494" s="6"/>
+    </row>
+    <row r="495" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F495" s="6"/>
+      <c r="G495" s="6"/>
+    </row>
+    <row r="496" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F496" s="6"/>
+      <c r="G496" s="6"/>
+    </row>
+    <row r="497" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F497" s="6"/>
+      <c r="G497" s="6"/>
+    </row>
+    <row r="498" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F498" s="6"/>
+      <c r="G498" s="6"/>
+    </row>
+    <row r="499" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F499" s="6"/>
+      <c r="G499" s="6"/>
+    </row>
+    <row r="500" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F500" s="6"/>
+      <c r="G500" s="6"/>
+    </row>
+    <row r="501" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F501" s="6"/>
+      <c r="G501" s="6"/>
+    </row>
+    <row r="502" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F502" s="6"/>
+      <c r="G502" s="6"/>
+    </row>
+    <row r="503" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F503" s="6"/>
+      <c r="G503" s="6"/>
+    </row>
+    <row r="504" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F504" s="6"/>
+      <c r="G504" s="6"/>
+    </row>
+    <row r="505" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F505" s="6"/>
+      <c r="G505" s="6"/>
+    </row>
+    <row r="506" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F506" s="6"/>
+      <c r="G506" s="6"/>
+    </row>
+    <row r="507" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F507" s="6"/>
+      <c r="G507" s="6"/>
+    </row>
+    <row r="508" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F508" s="6"/>
+      <c r="G508" s="6"/>
+    </row>
+    <row r="509" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F509" s="6"/>
+      <c r="G509" s="6"/>
+    </row>
+    <row r="510" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F510" s="6"/>
+      <c r="G510" s="6"/>
+    </row>
+    <row r="511" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F511" s="6"/>
+      <c r="G511" s="6"/>
+    </row>
+    <row r="512" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F512" s="6"/>
+      <c r="G512" s="6"/>
+    </row>
+    <row r="513" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F513" s="6"/>
+      <c r="G513" s="6"/>
+    </row>
+    <row r="514" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F514" s="6"/>
+      <c r="G514" s="6"/>
+    </row>
+    <row r="515" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F515" s="6"/>
+      <c r="G515" s="6"/>
+    </row>
+    <row r="516" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F516" s="6"/>
+      <c r="G516" s="6"/>
+    </row>
+    <row r="517" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F517" s="6"/>
+      <c r="G517" s="6"/>
+    </row>
+    <row r="518" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F518" s="6"/>
+      <c r="G518" s="6"/>
+    </row>
+    <row r="519" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F519" s="6"/>
+      <c r="G519" s="6"/>
+    </row>
+    <row r="520" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F520" s="6"/>
+      <c r="G520" s="6"/>
+    </row>
+    <row r="521" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F521" s="6"/>
+      <c r="G521" s="6"/>
+    </row>
+    <row r="522" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F522" s="6"/>
+      <c r="G522" s="6"/>
+    </row>
+    <row r="523" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F523" s="6"/>
+      <c r="G523" s="6"/>
+    </row>
+    <row r="524" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F524" s="6"/>
+      <c r="G524" s="6"/>
+    </row>
+    <row r="525" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F525" s="6"/>
+      <c r="G525" s="6"/>
+    </row>
+    <row r="526" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F526" s="6"/>
+      <c r="G526" s="6"/>
+    </row>
+    <row r="527" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F527" s="6"/>
+      <c r="G527" s="6"/>
+    </row>
+    <row r="528" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F528" s="6"/>
+      <c r="G528" s="6"/>
+    </row>
+    <row r="529" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F529" s="6"/>
+      <c r="G529" s="6"/>
+    </row>
+    <row r="530" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F530" s="6"/>
+      <c r="G530" s="6"/>
+    </row>
+    <row r="531" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F531" s="6"/>
+      <c r="G531" s="6"/>
+    </row>
+    <row r="532" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F532" s="6"/>
+      <c r="G532" s="6"/>
+    </row>
+    <row r="533" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F533" s="6"/>
+      <c r="G533" s="6"/>
+    </row>
+    <row r="534" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F534" s="6"/>
+      <c r="G534" s="6"/>
+    </row>
+    <row r="535" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F535" s="6"/>
+      <c r="G535" s="6"/>
+    </row>
+    <row r="536" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F536" s="6"/>
+      <c r="G536" s="6"/>
+    </row>
+    <row r="537" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F537" s="6"/>
+      <c r="G537" s="6"/>
+    </row>
+    <row r="538" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F538" s="6"/>
+      <c r="G538" s="6"/>
+    </row>
+    <row r="539" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F539" s="6"/>
+      <c r="G539" s="6"/>
+    </row>
+    <row r="540" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F540" s="6"/>
+      <c r="G540" s="6"/>
+    </row>
+    <row r="541" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F541" s="6"/>
+      <c r="G541" s="6"/>
+    </row>
+    <row r="542" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F542" s="6"/>
+      <c r="G542" s="6"/>
+    </row>
+    <row r="543" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F543" s="6"/>
+      <c r="G543" s="6"/>
+    </row>
+    <row r="544" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F544" s="6"/>
+      <c r="G544" s="6"/>
+    </row>
+    <row r="545" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F545" s="6"/>
+      <c r="G545" s="6"/>
+    </row>
+    <row r="546" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F546" s="6"/>
+      <c r="G546" s="6"/>
+    </row>
+    <row r="547" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F547" s="6"/>
+      <c r="G547" s="6"/>
+    </row>
+    <row r="548" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F548" s="6"/>
+      <c r="G548" s="6"/>
+    </row>
+    <row r="549" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F549" s="6"/>
+      <c r="G549" s="6"/>
+    </row>
+    <row r="550" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F550" s="6"/>
+      <c r="G550" s="6"/>
+    </row>
+    <row r="551" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F551" s="6"/>
+      <c r="G551" s="6"/>
+    </row>
+    <row r="552" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F552" s="6"/>
+      <c r="G552" s="6"/>
+    </row>
+    <row r="553" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F553" s="6"/>
+      <c r="G553" s="6"/>
+    </row>
+    <row r="554" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F554" s="6"/>
+      <c r="G554" s="6"/>
+    </row>
+    <row r="555" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F555" s="6"/>
+      <c r="G555" s="6"/>
+    </row>
+    <row r="556" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F556" s="6"/>
+      <c r="G556" s="6"/>
+    </row>
+    <row r="557" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F557" s="6"/>
+      <c r="G557" s="6"/>
+    </row>
+    <row r="558" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F558" s="6"/>
+      <c r="G558" s="6"/>
+    </row>
+    <row r="559" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F559" s="6"/>
+      <c r="G559" s="6"/>
+    </row>
+    <row r="560" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F560" s="6"/>
+      <c r="G560" s="6"/>
+    </row>
+    <row r="561" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F561" s="6"/>
+      <c r="G561" s="6"/>
+    </row>
+    <row r="562" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F562" s="6"/>
+      <c r="G562" s="6"/>
+    </row>
+    <row r="563" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F563" s="6"/>
+      <c r="G563" s="6"/>
+    </row>
+    <row r="564" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F564" s="6"/>
+      <c r="G564" s="6"/>
+    </row>
+    <row r="565" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F565" s="6"/>
+      <c r="G565" s="6"/>
+    </row>
+    <row r="566" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F566" s="6"/>
+      <c r="G566" s="6"/>
+    </row>
+    <row r="567" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F567" s="6"/>
+      <c r="G567" s="6"/>
+    </row>
+    <row r="568" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F568" s="6"/>
+      <c r="G568" s="6"/>
+    </row>
+    <row r="569" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F569" s="6"/>
+      <c r="G569" s="6"/>
+    </row>
+    <row r="570" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F570" s="6"/>
+      <c r="G570" s="6"/>
+    </row>
+    <row r="571" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F571" s="6"/>
+      <c r="G571" s="6"/>
+    </row>
+    <row r="572" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F572" s="6"/>
+      <c r="G572" s="6"/>
+    </row>
+    <row r="573" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F573" s="6"/>
+      <c r="G573" s="6"/>
+    </row>
+    <row r="574" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F574" s="6"/>
+      <c r="G574" s="6"/>
+    </row>
+    <row r="575" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F575" s="6"/>
+      <c r="G575" s="6"/>
+    </row>
+    <row r="576" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F576" s="6"/>
+      <c r="G576" s="6"/>
+    </row>
+    <row r="577" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F577" s="6"/>
+      <c r="G577" s="6"/>
+    </row>
+    <row r="578" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F578" s="6"/>
+      <c r="G578" s="6"/>
+    </row>
+    <row r="579" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F579" s="6"/>
+      <c r="G579" s="6"/>
+    </row>
+    <row r="580" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F580" s="6"/>
+      <c r="G580" s="6"/>
+    </row>
+    <row r="581" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F581" s="6"/>
+      <c r="G581" s="6"/>
+    </row>
+    <row r="582" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F582" s="6"/>
+      <c r="G582" s="6"/>
+    </row>
+    <row r="583" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F583" s="6"/>
+      <c r="G583" s="6"/>
+    </row>
+    <row r="584" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F584" s="6"/>
+      <c r="G584" s="6"/>
+    </row>
+    <row r="585" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F585" s="6"/>
+      <c r="G585" s="6"/>
+    </row>
+    <row r="586" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F586" s="6"/>
+      <c r="G586" s="6"/>
+    </row>
+    <row r="587" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F587" s="6"/>
+      <c r="G587" s="6"/>
+    </row>
+    <row r="588" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F588" s="6"/>
+      <c r="G588" s="6"/>
+    </row>
+    <row r="589" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F589" s="6"/>
+      <c r="G589" s="6"/>
+    </row>
+    <row r="590" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F590" s="6"/>
+      <c r="G590" s="6"/>
+    </row>
+    <row r="591" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F591" s="6"/>
+      <c r="G591" s="6"/>
+    </row>
+    <row r="592" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F592" s="6"/>
+      <c r="G592" s="6"/>
+    </row>
+    <row r="593" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F593" s="6"/>
+      <c r="G593" s="6"/>
+    </row>
+    <row r="594" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F594" s="6"/>
+      <c r="G594" s="6"/>
+    </row>
+    <row r="595" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F595" s="6"/>
+      <c r="G595" s="6"/>
+    </row>
+    <row r="596" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F596" s="6"/>
+      <c r="G596" s="6"/>
+    </row>
+    <row r="597" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F597" s="6"/>
+      <c r="G597" s="6"/>
+    </row>
+    <row r="598" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F598" s="6"/>
+      <c r="G598" s="6"/>
+    </row>
+    <row r="599" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F599" s="6"/>
+      <c r="G599" s="6"/>
+    </row>
+    <row r="600" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F600" s="6"/>
+      <c r="G600" s="6"/>
+    </row>
+    <row r="601" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F601" s="6"/>
+      <c r="G601" s="6"/>
+    </row>
+    <row r="602" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F602" s="6"/>
+      <c r="G602" s="6"/>
+    </row>
+    <row r="603" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F603" s="6"/>
+      <c r="G603" s="6"/>
+    </row>
+    <row r="604" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F604" s="6"/>
+      <c r="G604" s="6"/>
+    </row>
+    <row r="605" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F605" s="6"/>
+      <c r="G605" s="6"/>
+    </row>
+    <row r="606" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F606" s="6"/>
+      <c r="G606" s="6"/>
+    </row>
+    <row r="607" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F607" s="6"/>
+      <c r="G607" s="6"/>
+    </row>
+    <row r="608" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F608" s="6"/>
+      <c r="G608" s="6"/>
+    </row>
+    <row r="609" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F609" s="6"/>
+      <c r="G609" s="6"/>
+    </row>
+    <row r="610" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F610" s="6"/>
+      <c r="G610" s="6"/>
+    </row>
+    <row r="611" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F611" s="6"/>
+      <c r="G611" s="6"/>
+    </row>
+    <row r="612" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F612" s="6"/>
+      <c r="G612" s="6"/>
+    </row>
+    <row r="613" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F613" s="6"/>
+      <c r="G613" s="6"/>
+    </row>
+    <row r="614" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F614" s="6"/>
+      <c r="G614" s="6"/>
+    </row>
+    <row r="615" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F615" s="6"/>
+      <c r="G615" s="6"/>
+    </row>
+    <row r="616" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F616" s="6"/>
+      <c r="G616" s="6"/>
+    </row>
+    <row r="617" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F617" s="6"/>
+      <c r="G617" s="6"/>
+    </row>
+    <row r="618" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F618" s="6"/>
+      <c r="G618" s="6"/>
+    </row>
+    <row r="619" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F619" s="6"/>
+      <c r="G619" s="6"/>
+    </row>
+    <row r="620" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F620" s="6"/>
+      <c r="G620" s="6"/>
+    </row>
+    <row r="621" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F621" s="6"/>
+      <c r="G621" s="6"/>
+    </row>
+    <row r="622" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F622" s="6"/>
+      <c r="G622" s="6"/>
+    </row>
+    <row r="623" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F623" s="6"/>
+      <c r="G623" s="6"/>
+    </row>
+    <row r="624" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F624" s="6"/>
+      <c r="G624" s="6"/>
+    </row>
+    <row r="625" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F625" s="6"/>
+      <c r="G625" s="6"/>
+    </row>
+    <row r="626" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F626" s="6"/>
+      <c r="G626" s="6"/>
+    </row>
+    <row r="627" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F627" s="6"/>
+      <c r="G627" s="6"/>
+    </row>
+    <row r="628" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F628" s="6"/>
+      <c r="G628" s="6"/>
+    </row>
+    <row r="629" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F629" s="6"/>
+      <c r="G629" s="6"/>
+    </row>
+    <row r="630" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F630" s="6"/>
+      <c r="G630" s="6"/>
+    </row>
+    <row r="631" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F631" s="6"/>
+      <c r="G631" s="6"/>
+    </row>
+    <row r="632" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F632" s="6"/>
+      <c r="G632" s="6"/>
+    </row>
+    <row r="633" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F633" s="6"/>
+      <c r="G633" s="6"/>
+    </row>
+    <row r="634" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F634" s="6"/>
+      <c r="G634" s="6"/>
+    </row>
+    <row r="635" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F635" s="6"/>
+      <c r="G635" s="6"/>
+    </row>
+    <row r="636" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F636" s="6"/>
+      <c r="G636" s="6"/>
+    </row>
+    <row r="637" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F637" s="6"/>
+      <c r="G637" s="6"/>
+    </row>
+    <row r="638" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F638" s="6"/>
+      <c r="G638" s="6"/>
+    </row>
+    <row r="639" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F639" s="6"/>
+      <c r="G639" s="6"/>
+    </row>
+    <row r="640" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F640" s="6"/>
+      <c r="G640" s="6"/>
+    </row>
+    <row r="641" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F641" s="6"/>
+      <c r="G641" s="6"/>
+    </row>
+    <row r="642" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F642" s="6"/>
+      <c r="G642" s="6"/>
+    </row>
+    <row r="643" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F643" s="6"/>
+      <c r="G643" s="6"/>
+    </row>
+    <row r="644" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F644" s="6"/>
+      <c r="G644" s="6"/>
+    </row>
+    <row r="645" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F645" s="6"/>
+      <c r="G645" s="6"/>
+    </row>
+    <row r="646" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F646" s="6"/>
+      <c r="G646" s="6"/>
+    </row>
+    <row r="647" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F647" s="6"/>
+      <c r="G647" s="6"/>
+    </row>
+    <row r="648" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F648" s="6"/>
+      <c r="G648" s="6"/>
+    </row>
+    <row r="649" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F649" s="6"/>
+      <c r="G649" s="6"/>
+    </row>
+    <row r="650" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F650" s="6"/>
+      <c r="G650" s="6"/>
+    </row>
+    <row r="651" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F651" s="6"/>
+      <c r="G651" s="6"/>
+    </row>
+    <row r="652" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F652" s="6"/>
+      <c r="G652" s="6"/>
+    </row>
+    <row r="653" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F653" s="6"/>
+      <c r="G653" s="6"/>
+    </row>
+    <row r="654" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F654" s="6"/>
+      <c r="G654" s="6"/>
+    </row>
+    <row r="655" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F655" s="6"/>
+      <c r="G655" s="6"/>
+    </row>
+    <row r="656" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F656" s="6"/>
+      <c r="G656" s="6"/>
+    </row>
+    <row r="657" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F657" s="6"/>
+      <c r="G657" s="6"/>
+    </row>
+    <row r="658" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F658" s="6"/>
+      <c r="G658" s="6"/>
+    </row>
+    <row r="659" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F659" s="6"/>
+      <c r="G659" s="6"/>
+    </row>
+    <row r="660" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F660" s="6"/>
+      <c r="G660" s="6"/>
+    </row>
+    <row r="661" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F661" s="6"/>
+      <c r="G661" s="6"/>
+    </row>
+    <row r="662" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F662" s="6"/>
+      <c r="G662" s="6"/>
+    </row>
+    <row r="663" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F663" s="6"/>
+      <c r="G663" s="6"/>
+    </row>
+    <row r="664" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F664" s="6"/>
+      <c r="G664" s="6"/>
+    </row>
+    <row r="665" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F665" s="6"/>
+      <c r="G665" s="6"/>
+    </row>
+    <row r="666" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F666" s="6"/>
+      <c r="G666" s="6"/>
+    </row>
+    <row r="667" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F667" s="6"/>
+      <c r="G667" s="6"/>
+    </row>
+    <row r="668" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F668" s="6"/>
+      <c r="G668" s="6"/>
+    </row>
+    <row r="669" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F669" s="6"/>
+      <c r="G669" s="6"/>
+    </row>
+    <row r="670" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F670" s="6"/>
+      <c r="G670" s="6"/>
+    </row>
+    <row r="671" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F671" s="6"/>
+      <c r="G671" s="6"/>
+    </row>
+    <row r="672" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F672" s="6"/>
+      <c r="G672" s="6"/>
+    </row>
+    <row r="673" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F673" s="6"/>
+      <c r="G673" s="6"/>
+    </row>
+    <row r="674" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F674" s="6"/>
+      <c r="G674" s="6"/>
+    </row>
+    <row r="675" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F675" s="6"/>
+      <c r="G675" s="6"/>
+    </row>
+    <row r="676" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F676" s="6"/>
+      <c r="G676" s="6"/>
+    </row>
+    <row r="677" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F677" s="6"/>
+      <c r="G677" s="6"/>
+    </row>
+    <row r="678" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F678" s="6"/>
+      <c r="G678" s="6"/>
+    </row>
+    <row r="679" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F679" s="6"/>
+      <c r="G679" s="6"/>
+    </row>
+    <row r="680" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F680" s="6"/>
+      <c r="G680" s="6"/>
+    </row>
+    <row r="681" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F681" s="6"/>
+      <c r="G681" s="6"/>
+    </row>
+    <row r="682" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F682" s="6"/>
+      <c r="G682" s="6"/>
+    </row>
+    <row r="683" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F683" s="6"/>
+      <c r="G683" s="6"/>
+    </row>
+    <row r="684" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F684" s="6"/>
+      <c r="G684" s="6"/>
+    </row>
+    <row r="685" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F685" s="6"/>
+      <c r="G685" s="6"/>
+    </row>
+    <row r="686" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F686" s="6"/>
+      <c r="G686" s="6"/>
+    </row>
+    <row r="687" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F687" s="6"/>
+      <c r="G687" s="6"/>
+    </row>
+    <row r="688" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F688" s="6"/>
+      <c r="G688" s="6"/>
+    </row>
+    <row r="689" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F689" s="6"/>
+      <c r="G689" s="6"/>
+    </row>
+    <row r="690" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F690" s="6"/>
+      <c r="G690" s="6"/>
+    </row>
+    <row r="691" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F691" s="6"/>
+      <c r="G691" s="6"/>
+    </row>
+    <row r="692" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F692" s="6"/>
+      <c r="G692" s="6"/>
+    </row>
+    <row r="693" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F693" s="6"/>
+      <c r="G693" s="6"/>
+    </row>
+    <row r="694" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F694" s="6"/>
+      <c r="G694" s="6"/>
+    </row>
+    <row r="695" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F695" s="6"/>
+      <c r="G695" s="6"/>
+    </row>
+    <row r="696" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F696" s="6"/>
+      <c r="G696" s="6"/>
+    </row>
+    <row r="697" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F697" s="6"/>
+      <c r="G697" s="6"/>
+    </row>
+    <row r="698" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F698" s="6"/>
+      <c r="G698" s="6"/>
+    </row>
+    <row r="699" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F699" s="6"/>
+      <c r="G699" s="6"/>
+    </row>
+    <row r="700" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F700" s="6"/>
+      <c r="G700" s="6"/>
+    </row>
+    <row r="701" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F701" s="6"/>
+      <c r="G701" s="6"/>
+    </row>
+    <row r="702" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F702" s="6"/>
+      <c r="G702" s="6"/>
+    </row>
+    <row r="703" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F703" s="6"/>
+      <c r="G703" s="6"/>
+    </row>
+    <row r="704" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F704" s="6"/>
+      <c r="G704" s="6"/>
+    </row>
+    <row r="705" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F705" s="6"/>
+      <c r="G705" s="6"/>
+    </row>
+    <row r="706" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F706" s="6"/>
+      <c r="G706" s="6"/>
+    </row>
+    <row r="707" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F707" s="6"/>
+      <c r="G707" s="6"/>
+    </row>
+    <row r="708" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F708" s="6"/>
+      <c r="G708" s="6"/>
+    </row>
+    <row r="709" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F709" s="6"/>
+      <c r="G709" s="6"/>
+    </row>
+    <row r="710" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F710" s="6"/>
+      <c r="G710" s="6"/>
+    </row>
+    <row r="711" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F711" s="6"/>
+      <c r="G711" s="6"/>
+    </row>
+    <row r="712" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F712" s="6"/>
+      <c r="G712" s="6"/>
+    </row>
+    <row r="713" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F713" s="6"/>
+      <c r="G713" s="6"/>
+    </row>
+    <row r="714" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F714" s="6"/>
+      <c r="G714" s="6"/>
+    </row>
+    <row r="715" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F715" s="6"/>
+      <c r="G715" s="6"/>
+    </row>
+    <row r="716" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F716" s="6"/>
+      <c r="G716" s="6"/>
+    </row>
+    <row r="717" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F717" s="6"/>
+      <c r="G717" s="6"/>
+    </row>
+    <row r="718" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F718" s="6"/>
+      <c r="G718" s="6"/>
+    </row>
+    <row r="719" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F719" s="6"/>
+      <c r="G719" s="6"/>
+    </row>
+    <row r="720" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F720" s="6"/>
+      <c r="G720" s="6"/>
+    </row>
+    <row r="721" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F721" s="6"/>
+      <c r="G721" s="6"/>
+    </row>
+    <row r="722" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F722" s="6"/>
+      <c r="G722" s="6"/>
+    </row>
+    <row r="723" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F723" s="6"/>
+      <c r="G723" s="6"/>
+    </row>
+    <row r="724" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F724" s="6"/>
+      <c r="G724" s="6"/>
+    </row>
+    <row r="725" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F725" s="6"/>
+      <c r="G725" s="6"/>
+    </row>
+    <row r="726" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F726" s="6"/>
+      <c r="G726" s="6"/>
+    </row>
+    <row r="727" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F727" s="6"/>
+      <c r="G727" s="6"/>
+    </row>
+    <row r="728" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F728" s="6"/>
+      <c r="G728" s="6"/>
+    </row>
+    <row r="729" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F729" s="6"/>
+      <c r="G729" s="6"/>
+    </row>
+    <row r="730" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F730" s="6"/>
+      <c r="G730" s="6"/>
+    </row>
+    <row r="731" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F731" s="6"/>
+      <c r="G731" s="6"/>
+    </row>
+    <row r="732" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F732" s="6"/>
+      <c r="G732" s="6"/>
+    </row>
+    <row r="733" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F733" s="6"/>
+      <c r="G733" s="6"/>
+    </row>
+    <row r="734" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F734" s="6"/>
+      <c r="G734" s="6"/>
+    </row>
+    <row r="735" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F735" s="6"/>
+      <c r="G735" s="6"/>
+    </row>
+    <row r="736" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F736" s="6"/>
+      <c r="G736" s="6"/>
+    </row>
+    <row r="737" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F737" s="6"/>
+      <c r="G737" s="6"/>
+    </row>
+    <row r="738" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F738" s="6"/>
+      <c r="G738" s="6"/>
+    </row>
+    <row r="739" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F739" s="6"/>
+      <c r="G739" s="6"/>
+    </row>
+    <row r="740" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F740" s="6"/>
+      <c r="G740" s="6"/>
+    </row>
+    <row r="741" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F741" s="6"/>
+      <c r="G741" s="6"/>
+    </row>
+    <row r="742" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F742" s="6"/>
+      <c r="G742" s="6"/>
+    </row>
+    <row r="743" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F743" s="6"/>
+      <c r="G743" s="6"/>
+    </row>
+    <row r="744" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F744" s="6"/>
+      <c r="G744" s="6"/>
+    </row>
+    <row r="745" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F745" s="6"/>
+      <c r="G745" s="6"/>
+    </row>
+    <row r="746" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F746" s="6"/>
+      <c r="G746" s="6"/>
+    </row>
+    <row r="747" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F747" s="6"/>
+      <c r="G747" s="6"/>
+    </row>
+    <row r="748" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F748" s="6"/>
+      <c r="G748" s="6"/>
+    </row>
+    <row r="749" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F749" s="6"/>
+      <c r="G749" s="6"/>
+    </row>
+    <row r="750" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F750" s="6"/>
+      <c r="G750" s="6"/>
+    </row>
+    <row r="751" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F751" s="6"/>
+      <c r="G751" s="6"/>
+    </row>
+    <row r="752" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F752" s="6"/>
+      <c r="G752" s="6"/>
+    </row>
+    <row r="753" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F753" s="6"/>
+      <c r="G753" s="6"/>
+    </row>
+    <row r="754" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F754" s="6"/>
+      <c r="G754" s="6"/>
+    </row>
+    <row r="755" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F755" s="6"/>
+      <c r="G755" s="6"/>
+    </row>
+    <row r="756" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F756" s="6"/>
+      <c r="G756" s="6"/>
+    </row>
+    <row r="757" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F757" s="6"/>
+      <c r="G757" s="6"/>
+    </row>
+    <row r="758" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F758" s="6"/>
+      <c r="G758" s="6"/>
+    </row>
+    <row r="759" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F759" s="6"/>
+      <c r="G759" s="6"/>
+    </row>
+    <row r="760" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F760" s="6"/>
+      <c r="G760" s="6"/>
+    </row>
+    <row r="761" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F761" s="6"/>
+      <c r="G761" s="6"/>
+    </row>
+    <row r="762" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F762" s="6"/>
+      <c r="G762" s="6"/>
+    </row>
+    <row r="763" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F763" s="6"/>
+      <c r="G763" s="6"/>
+    </row>
+    <row r="764" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F764" s="6"/>
+      <c r="G764" s="6"/>
+    </row>
+    <row r="765" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F765" s="6"/>
+      <c r="G765" s="6"/>
+    </row>
+    <row r="766" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F766" s="6"/>
+      <c r="G766" s="6"/>
+    </row>
+    <row r="767" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F767" s="6"/>
+      <c r="G767" s="6"/>
+    </row>
+    <row r="768" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F768" s="6"/>
+      <c r="G768" s="6"/>
+    </row>
+    <row r="769" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F769" s="6"/>
+      <c r="G769" s="6"/>
+    </row>
+    <row r="770" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F770" s="6"/>
+      <c r="G770" s="6"/>
+    </row>
+    <row r="771" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F771" s="6"/>
+      <c r="G771" s="6"/>
+    </row>
+    <row r="772" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F772" s="6"/>
+      <c r="G772" s="6"/>
+    </row>
+    <row r="773" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F773" s="6"/>
+      <c r="G773" s="6"/>
+    </row>
+    <row r="774" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F774" s="6"/>
+      <c r="G774" s="6"/>
+    </row>
+    <row r="775" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F775" s="6"/>
+      <c r="G775" s="6"/>
+    </row>
+    <row r="776" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F776" s="6"/>
+      <c r="G776" s="6"/>
+    </row>
+    <row r="777" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F777" s="6"/>
+      <c r="G777" s="6"/>
+    </row>
+    <row r="778" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F778" s="6"/>
+      <c r="G778" s="6"/>
+    </row>
+    <row r="779" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F779" s="6"/>
+      <c r="G779" s="6"/>
+    </row>
+    <row r="780" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F780" s="6"/>
+      <c r="G780" s="6"/>
+    </row>
+    <row r="781" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F781" s="6"/>
+      <c r="G781" s="6"/>
+    </row>
+    <row r="782" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F782" s="6"/>
+      <c r="G782" s="6"/>
+    </row>
+    <row r="783" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F783" s="6"/>
+      <c r="G783" s="6"/>
+    </row>
+    <row r="784" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F784" s="6"/>
+      <c r="G784" s="6"/>
+    </row>
+    <row r="785" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F785" s="6"/>
+      <c r="G785" s="6"/>
+    </row>
+    <row r="786" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F786" s="6"/>
+      <c r="G786" s="6"/>
+    </row>
+    <row r="787" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F787" s="6"/>
+      <c r="G787" s="6"/>
+    </row>
+    <row r="788" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F788" s="6"/>
+      <c r="G788" s="6"/>
+    </row>
+    <row r="789" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F789" s="6"/>
+      <c r="G789" s="6"/>
+    </row>
+    <row r="790" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F790" s="6"/>
+      <c r="G790" s="6"/>
+    </row>
+    <row r="791" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F791" s="6"/>
+      <c r="G791" s="6"/>
+    </row>
+    <row r="792" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F792" s="6"/>
+      <c r="G792" s="6"/>
+    </row>
+    <row r="793" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F793" s="6"/>
+      <c r="G793" s="6"/>
+    </row>
+    <row r="794" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F794" s="6"/>
+      <c r="G794" s="6"/>
+    </row>
+    <row r="795" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F795" s="6"/>
+      <c r="G795" s="6"/>
+    </row>
+    <row r="796" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F796" s="6"/>
+      <c r="G796" s="6"/>
+    </row>
+    <row r="797" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F797" s="6"/>
+      <c r="G797" s="6"/>
+    </row>
+    <row r="798" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F798" s="6"/>
+      <c r="G798" s="6"/>
+    </row>
+    <row r="799" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F799" s="6"/>
+      <c r="G799" s="6"/>
+    </row>
+    <row r="800" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F800" s="6"/>
+      <c r="G800" s="6"/>
+    </row>
+    <row r="801" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F801" s="6"/>
+      <c r="G801" s="6"/>
+    </row>
+    <row r="802" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F802" s="6"/>
+      <c r="G802" s="6"/>
+    </row>
+    <row r="803" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F803" s="6"/>
+      <c r="G803" s="6"/>
+    </row>
+    <row r="804" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F804" s="6"/>
+      <c r="G804" s="6"/>
+    </row>
+    <row r="805" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F805" s="6"/>
+      <c r="G805" s="6"/>
+    </row>
+    <row r="806" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F806" s="6"/>
+      <c r="G806" s="6"/>
+    </row>
+    <row r="807" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F807" s="6"/>
+      <c r="G807" s="6"/>
+    </row>
+    <row r="808" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F808" s="6"/>
+      <c r="G808" s="6"/>
+    </row>
+    <row r="809" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F809" s="6"/>
+      <c r="G809" s="6"/>
+    </row>
+    <row r="810" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F810" s="6"/>
+      <c r="G810" s="6"/>
+    </row>
+    <row r="811" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F811" s="6"/>
+      <c r="G811" s="6"/>
+    </row>
+    <row r="812" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F812" s="6"/>
+      <c r="G812" s="6"/>
+    </row>
+    <row r="813" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F813" s="6"/>
+      <c r="G813" s="6"/>
+    </row>
+    <row r="814" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F814" s="6"/>
+      <c r="G814" s="6"/>
+    </row>
+    <row r="815" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F815" s="6"/>
+      <c r="G815" s="6"/>
+    </row>
+    <row r="816" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F816" s="6"/>
+      <c r="G816" s="6"/>
+    </row>
+    <row r="817" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F817" s="6"/>
+      <c r="G817" s="6"/>
+    </row>
+    <row r="818" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F818" s="6"/>
+      <c r="G818" s="6"/>
+    </row>
+    <row r="819" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F819" s="6"/>
+      <c r="G819" s="6"/>
+    </row>
+    <row r="820" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F820" s="6"/>
+      <c r="G820" s="6"/>
+    </row>
+    <row r="821" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F821" s="6"/>
+      <c r="G821" s="6"/>
+    </row>
+    <row r="822" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F822" s="6"/>
+      <c r="G822" s="6"/>
+    </row>
+    <row r="823" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F823" s="6"/>
+      <c r="G823" s="6"/>
+    </row>
+    <row r="824" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F824" s="6"/>
+      <c r="G824" s="6"/>
+    </row>
+    <row r="825" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F825" s="6"/>
+      <c r="G825" s="6"/>
+    </row>
+    <row r="826" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F826" s="6"/>
+      <c r="G826" s="6"/>
+    </row>
+    <row r="827" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F827" s="6"/>
+      <c r="G827" s="6"/>
+    </row>
+    <row r="828" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F828" s="6"/>
+      <c r="G828" s="6"/>
+    </row>
+    <row r="829" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F829" s="6"/>
+      <c r="G829" s="6"/>
+    </row>
+    <row r="830" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F830" s="6"/>
+      <c r="G830" s="6"/>
+    </row>
+    <row r="831" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F831" s="6"/>
+      <c r="G831" s="6"/>
+    </row>
+    <row r="832" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F832" s="6"/>
+      <c r="G832" s="6"/>
+    </row>
+    <row r="833" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F833" s="6"/>
+      <c r="G833" s="6"/>
+    </row>
+    <row r="834" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F834" s="6"/>
+      <c r="G834" s="6"/>
+    </row>
+    <row r="835" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F835" s="6"/>
+      <c r="G835" s="6"/>
+    </row>
+    <row r="836" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F836" s="6"/>
+      <c r="G836" s="6"/>
+    </row>
+    <row r="837" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F837" s="6"/>
+      <c r="G837" s="6"/>
+    </row>
+    <row r="838" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F838" s="6"/>
+      <c r="G838" s="6"/>
+    </row>
+    <row r="839" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F839" s="6"/>
+      <c r="G839" s="6"/>
+    </row>
+    <row r="840" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F840" s="6"/>
+      <c r="G840" s="6"/>
+    </row>
+    <row r="841" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F841" s="6"/>
+      <c r="G841" s="6"/>
+    </row>
+    <row r="842" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F842" s="6"/>
+      <c r="G842" s="6"/>
+    </row>
+    <row r="843" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F843" s="6"/>
+      <c r="G843" s="6"/>
+    </row>
+    <row r="844" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F844" s="6"/>
+      <c r="G844" s="6"/>
+    </row>
+    <row r="845" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F845" s="6"/>
+      <c r="G845" s="6"/>
+    </row>
+    <row r="846" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F846" s="6"/>
+      <c r="G846" s="6"/>
+    </row>
+    <row r="847" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F847" s="6"/>
+      <c r="G847" s="6"/>
+    </row>
+    <row r="848" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F848" s="6"/>
+      <c r="G848" s="6"/>
+    </row>
+    <row r="849" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F849" s="6"/>
+      <c r="G849" s="6"/>
+    </row>
+    <row r="850" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F850" s="6"/>
+      <c r="G850" s="6"/>
+    </row>
+    <row r="851" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F851" s="6"/>
+      <c r="G851" s="6"/>
+    </row>
+    <row r="852" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F852" s="6"/>
+      <c r="G852" s="6"/>
+    </row>
+    <row r="853" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F853" s="6"/>
+      <c r="G853" s="6"/>
+    </row>
+    <row r="854" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F854" s="6"/>
+      <c r="G854" s="6"/>
+    </row>
+    <row r="855" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F855" s="6"/>
+      <c r="G855" s="6"/>
+    </row>
+    <row r="856" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F856" s="6"/>
+      <c r="G856" s="6"/>
+    </row>
+    <row r="857" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F857" s="6"/>
+      <c r="G857" s="6"/>
+    </row>
+    <row r="858" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F858" s="6"/>
+      <c r="G858" s="6"/>
+    </row>
+    <row r="859" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F859" s="6"/>
+      <c r="G859" s="6"/>
+    </row>
+    <row r="860" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F860" s="6"/>
+      <c r="G860" s="6"/>
+    </row>
+    <row r="861" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F861" s="6"/>
+      <c r="G861" s="6"/>
+    </row>
+    <row r="862" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F862" s="6"/>
+      <c r="G862" s="6"/>
+    </row>
+    <row r="863" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F863" s="6"/>
+      <c r="G863" s="6"/>
+    </row>
+    <row r="864" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F864" s="6"/>
+      <c r="G864" s="6"/>
+    </row>
+    <row r="865" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F865" s="6"/>
+      <c r="G865" s="6"/>
+    </row>
+    <row r="866" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F866" s="6"/>
+      <c r="G866" s="6"/>
+    </row>
+    <row r="867" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F867" s="6"/>
+      <c r="G867" s="6"/>
+    </row>
+    <row r="868" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F868" s="6"/>
+      <c r="G868" s="6"/>
+    </row>
+    <row r="869" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F869" s="6"/>
+      <c r="G869" s="6"/>
+    </row>
+    <row r="870" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F870" s="6"/>
+      <c r="G870" s="6"/>
+    </row>
+    <row r="871" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F871" s="6"/>
+      <c r="G871" s="6"/>
+    </row>
+    <row r="872" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F872" s="6"/>
+      <c r="G872" s="6"/>
+    </row>
+    <row r="873" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F873" s="6"/>
+      <c r="G873" s="6"/>
+    </row>
+    <row r="874" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F874" s="6"/>
+      <c r="G874" s="6"/>
+    </row>
+    <row r="875" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F875" s="6"/>
+      <c r="G875" s="6"/>
+    </row>
+    <row r="876" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F876" s="6"/>
+      <c r="G876" s="6"/>
+    </row>
+    <row r="877" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F877" s="6"/>
+      <c r="G877" s="6"/>
+    </row>
+    <row r="878" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F878" s="6"/>
+      <c r="G878" s="6"/>
+    </row>
+    <row r="879" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F879" s="6"/>
+      <c r="G879" s="6"/>
+    </row>
+    <row r="880" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F880" s="6"/>
+      <c r="G880" s="6"/>
+    </row>
+    <row r="881" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F881" s="6"/>
+      <c r="G881" s="6"/>
+    </row>
+    <row r="882" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F882" s="6"/>
+      <c r="G882" s="6"/>
+    </row>
+    <row r="883" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F883" s="6"/>
+      <c r="G883" s="6"/>
+    </row>
+    <row r="884" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F884" s="6"/>
+      <c r="G884" s="6"/>
+    </row>
+    <row r="885" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F885" s="6"/>
+      <c r="G885" s="6"/>
+    </row>
+    <row r="886" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F886" s="6"/>
+      <c r="G886" s="6"/>
+    </row>
+    <row r="887" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F887" s="6"/>
+      <c r="G887" s="6"/>
+    </row>
+    <row r="888" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F888" s="6"/>
+      <c r="G888" s="6"/>
+    </row>
+    <row r="889" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F889" s="6"/>
+      <c r="G889" s="6"/>
+    </row>
+    <row r="890" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F890" s="6"/>
+      <c r="G890" s="6"/>
+    </row>
+    <row r="891" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F891" s="6"/>
+      <c r="G891" s="6"/>
+    </row>
+    <row r="892" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F892" s="6"/>
+      <c r="G892" s="6"/>
+    </row>
+    <row r="893" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F893" s="6"/>
+      <c r="G893" s="6"/>
+    </row>
+    <row r="894" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F894" s="6"/>
+      <c r="G894" s="6"/>
+    </row>
+    <row r="895" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F895" s="6"/>
+      <c r="G895" s="6"/>
+    </row>
+    <row r="896" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F896" s="6"/>
+      <c r="G896" s="6"/>
+    </row>
+    <row r="897" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F897" s="6"/>
+      <c r="G897" s="6"/>
+    </row>
+    <row r="898" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F898" s="6"/>
+      <c r="G898" s="6"/>
+    </row>
+    <row r="899" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F899" s="6"/>
+      <c r="G899" s="6"/>
+    </row>
+    <row r="900" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F900" s="6"/>
+      <c r="G900" s="6"/>
+    </row>
+    <row r="901" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F901" s="6"/>
+      <c r="G901" s="6"/>
+    </row>
+    <row r="902" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F902" s="6"/>
+      <c r="G902" s="6"/>
+    </row>
+    <row r="903" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F903" s="6"/>
+      <c r="G903" s="6"/>
+    </row>
+    <row r="904" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F904" s="6"/>
+      <c r="G904" s="6"/>
+    </row>
+    <row r="905" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F905" s="6"/>
+      <c r="G905" s="6"/>
+    </row>
+    <row r="906" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F906" s="6"/>
+      <c r="G906" s="6"/>
+    </row>
+    <row r="907" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F907" s="6"/>
+      <c r="G907" s="6"/>
+    </row>
+    <row r="908" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F908" s="6"/>
+      <c r="G908" s="6"/>
+    </row>
+    <row r="909" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F909" s="6"/>
+      <c r="G909" s="6"/>
+    </row>
+    <row r="910" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F910" s="6"/>
+      <c r="G910" s="6"/>
+    </row>
+    <row r="911" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F911" s="6"/>
+      <c r="G911" s="6"/>
+    </row>
+    <row r="912" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F912" s="6"/>
+      <c r="G912" s="6"/>
+    </row>
+    <row r="913" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F913" s="6"/>
+      <c r="G913" s="6"/>
+    </row>
+    <row r="914" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F914" s="6"/>
+      <c r="G914" s="6"/>
+    </row>
+    <row r="915" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F915" s="6"/>
+      <c r="G915" s="6"/>
+    </row>
+    <row r="916" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F916" s="6"/>
+      <c r="G916" s="6"/>
+    </row>
+    <row r="917" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F917" s="6"/>
+      <c r="G917" s="6"/>
+    </row>
+    <row r="918" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F918" s="6"/>
+      <c r="G918" s="6"/>
+    </row>
+    <row r="919" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F919" s="6"/>
+      <c r="G919" s="6"/>
+    </row>
+    <row r="920" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F920" s="6"/>
+      <c r="G920" s="6"/>
+    </row>
+    <row r="921" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F921" s="6"/>
+      <c r="G921" s="6"/>
+    </row>
+    <row r="922" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F922" s="6"/>
+      <c r="G922" s="6"/>
+    </row>
+    <row r="923" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F923" s="6"/>
+      <c r="G923" s="6"/>
+    </row>
+    <row r="924" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F924" s="6"/>
+      <c r="G924" s="6"/>
+    </row>
+    <row r="925" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F925" s="6"/>
+      <c r="G925" s="6"/>
+    </row>
+    <row r="926" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F926" s="6"/>
+      <c r="G926" s="6"/>
+    </row>
+    <row r="927" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F927" s="6"/>
+      <c r="G927" s="6"/>
+    </row>
+    <row r="928" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F928" s="6"/>
+      <c r="G928" s="6"/>
+    </row>
+    <row r="929" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F929" s="6"/>
+      <c r="G929" s="6"/>
+    </row>
+    <row r="930" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F930" s="6"/>
+      <c r="G930" s="6"/>
+    </row>
+    <row r="931" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F931" s="6"/>
+      <c r="G931" s="6"/>
+    </row>
+    <row r="932" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F932" s="6"/>
+      <c r="G932" s="6"/>
+    </row>
+    <row r="933" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F933" s="6"/>
+      <c r="G933" s="6"/>
+    </row>
+    <row r="934" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F934" s="6"/>
+      <c r="G934" s="6"/>
+    </row>
+    <row r="935" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F935" s="6"/>
+      <c r="G935" s="6"/>
+    </row>
+    <row r="936" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F936" s="6"/>
+      <c r="G936" s="6"/>
+    </row>
+    <row r="937" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F937" s="6"/>
+      <c r="G937" s="6"/>
+    </row>
+    <row r="938" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F938" s="6"/>
+      <c r="G938" s="6"/>
+    </row>
+    <row r="939" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F939" s="6"/>
+      <c r="G939" s="6"/>
+    </row>
+    <row r="940" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F940" s="6"/>
+      <c r="G940" s="6"/>
+    </row>
+    <row r="941" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F941" s="6"/>
+      <c r="G941" s="6"/>
+    </row>
+    <row r="942" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F942" s="6"/>
+      <c r="G942" s="6"/>
+    </row>
+    <row r="943" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F943" s="6"/>
+      <c r="G943" s="6"/>
+    </row>
+    <row r="944" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F944" s="6"/>
+      <c r="G944" s="6"/>
+    </row>
+    <row r="945" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F945" s="6"/>
+      <c r="G945" s="6"/>
+    </row>
+    <row r="946" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F946" s="6"/>
+      <c r="G946" s="6"/>
+    </row>
+    <row r="947" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F947" s="6"/>
+      <c r="G947" s="6"/>
+    </row>
+    <row r="948" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F948" s="6"/>
+      <c r="G948" s="6"/>
+    </row>
+    <row r="949" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F949" s="6"/>
+      <c r="G949" s="6"/>
+    </row>
+    <row r="950" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F950" s="6"/>
+      <c r="G950" s="6"/>
+    </row>
+    <row r="951" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F951" s="6"/>
+      <c r="G951" s="6"/>
+    </row>
+    <row r="952" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F952" s="6"/>
+      <c r="G952" s="6"/>
+    </row>
+    <row r="953" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F953" s="6"/>
+      <c r="G953" s="6"/>
+    </row>
+    <row r="954" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F954" s="6"/>
+      <c r="G954" s="6"/>
+    </row>
+    <row r="955" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F955" s="6"/>
+      <c r="G955" s="6"/>
+    </row>
+    <row r="956" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F956" s="6"/>
+      <c r="G956" s="6"/>
+    </row>
+    <row r="957" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F957" s="6"/>
+      <c r="G957" s="6"/>
+    </row>
+    <row r="958" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F958" s="6"/>
+      <c r="G958" s="6"/>
+    </row>
+    <row r="959" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F959" s="6"/>
+      <c r="G959" s="6"/>
+    </row>
+    <row r="960" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F960" s="6"/>
+      <c r="G960" s="6"/>
+    </row>
+    <row r="961" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F961" s="6"/>
+      <c r="G961" s="6"/>
+    </row>
+    <row r="962" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F962" s="6"/>
+      <c r="G962" s="6"/>
+    </row>
+    <row r="963" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F963" s="6"/>
+      <c r="G963" s="6"/>
+    </row>
+    <row r="964" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F964" s="6"/>
+      <c r="G964" s="6"/>
+    </row>
+    <row r="965" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F965" s="6"/>
+      <c r="G965" s="6"/>
+    </row>
+    <row r="966" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F966" s="6"/>
+      <c r="G966" s="6"/>
+    </row>
+    <row r="967" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F967" s="6"/>
+      <c r="G967" s="6"/>
+    </row>
+    <row r="968" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F968" s="6"/>
+      <c r="G968" s="6"/>
+    </row>
+    <row r="969" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F969" s="6"/>
+      <c r="G969" s="6"/>
+    </row>
+    <row r="970" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F970" s="6"/>
+      <c r="G970" s="6"/>
+    </row>
+    <row r="971" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F971" s="6"/>
+      <c r="G971" s="6"/>
+    </row>
+    <row r="972" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F972" s="6"/>
+      <c r="G972" s="6"/>
+    </row>
+    <row r="973" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F973" s="6"/>
+      <c r="G973" s="6"/>
+    </row>
+    <row r="974" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F974" s="6"/>
+      <c r="G974" s="6"/>
+    </row>
+    <row r="975" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F975" s="6"/>
+      <c r="G975" s="6"/>
+    </row>
+    <row r="976" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F976" s="6"/>
+      <c r="G976" s="6"/>
+    </row>
+    <row r="977" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F977" s="6"/>
+      <c r="G977" s="6"/>
+    </row>
+    <row r="978" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F978" s="6"/>
+      <c r="G978" s="6"/>
+    </row>
+    <row r="979" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F979" s="6"/>
+      <c r="G979" s="6"/>
+    </row>
+    <row r="980" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F980" s="6"/>
+      <c r="G980" s="6"/>
+    </row>
+    <row r="981" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F981" s="6"/>
+      <c r="G981" s="6"/>
+    </row>
+    <row r="982" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F982" s="6"/>
+      <c r="G982" s="6"/>
+    </row>
+    <row r="983" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F983" s="6"/>
+      <c r="G983" s="6"/>
+    </row>
+    <row r="984" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F984" s="6"/>
+      <c r="G984" s="6"/>
+    </row>
+    <row r="985" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F985" s="6"/>
+      <c r="G985" s="6"/>
+    </row>
+    <row r="986" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F986" s="6"/>
+      <c r="G986" s="6"/>
+    </row>
+    <row r="987" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F987" s="6"/>
+      <c r="G987" s="6"/>
+    </row>
+    <row r="988" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F988" s="6"/>
+      <c r="G988" s="6"/>
+    </row>
+    <row r="989" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F989" s="6"/>
+      <c r="G989" s="6"/>
+    </row>
+    <row r="990" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F990" s="6"/>
+      <c r="G990" s="6"/>
+    </row>
+    <row r="991" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F991" s="6"/>
+      <c r="G991" s="6"/>
+    </row>
+    <row r="992" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F992" s="6"/>
+      <c r="G992" s="6"/>
+    </row>
+    <row r="993" spans="6:7" ht="15" customHeight="1">
+      <c r="F993" s="6"/>
+      <c r="G993" s="6"/>
+    </row>
+    <row r="994" spans="6:7" ht="15" customHeight="1">
+      <c r="F994" s="6"/>
+      <c r="G994" s="6"/>
+    </row>
+    <row r="995" spans="6:7" ht="15" customHeight="1">
+      <c r="F995" s="6"/>
+      <c r="G995" s="6"/>
+    </row>
+    <row r="996" spans="6:7" ht="15" customHeight="1">
+      <c r="F996" s="6"/>
+      <c r="G996" s="6"/>
+    </row>
+    <row r="997" spans="6:7" ht="15" customHeight="1">
+      <c r="F997" s="6"/>
+      <c r="G997" s="6"/>
+    </row>
+    <row r="998" spans="6:7" ht="15" customHeight="1">
+      <c r="F998" s="6"/>
+      <c r="G998" s="6"/>
+    </row>
+    <row r="999" spans="6:7" ht="15" customHeight="1">
+      <c r="F999" s="6"/>
+      <c r="G999" s="6"/>
+    </row>
+    <row r="1000" spans="6:7" ht="15" customHeight="1">
+      <c r="F1000" s="6"/>
+      <c r="G1000" s="6"/>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{29C0C022-D3A0-4F47-A009-391FF7296600}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$L$3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="L3" xr:uid="{49A47C47-05E7-4FFF-8557-500929DA5C30}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="845558369"/>
@@ -4669,9 +8138,8 @@
       </extLst>
     </customSheetView>
   </customSheetViews>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>